--- a/config_debug/fish_3d_6in1_config.xlsx
+++ b/config_debug/fish_3d_6in1_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>weight|权重</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -49,9 +49,31 @@
   </si>
   <si>
     <t>10,10,10,10,10,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10,10,10,10,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,7 +476,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -490,10 +512,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -512,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -523,10 +545,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -534,10 +556,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -545,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>

--- a/config_debug/fish_3d_6in1_config.xlsx
+++ b/config_debug/fish_3d_6in1_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>weight|权重</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>10,10,10,10,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_6in1_config.xlsx
+++ b/config_debug/fish_3d_6in1_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>weight|权重</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -33,7 +33,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10,0,0,0,0,0</t>
+    <t>10,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>10,10,10,10,10,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30,20,10,0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -45,38 +64,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>50,40,30,20,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30,0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30,0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,0,0,0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>10,10,10,10,10,10</t>
-  </si>
-  <si>
-    <t>10,10,10,10,10,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,0,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30,20,0,0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -485,6 +497,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -505,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -516,10 +529,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -530,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -538,10 +551,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -549,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -560,10 +573,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -571,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -582,10 +595,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -593,10 +606,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -604,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
